--- a/exp/stimuli.xlsx
+++ b/exp/stimuli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabmac/Documents/RU/QP/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23036AA-BE6B-EF44-BF8D-ACA9FBA0ABD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E7405-730C-4740-99D8-1560759BBC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="1680" windowWidth="34340" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
+    <workbookView xWindow="10860" yWindow="22340" windowWidth="29400" windowHeight="18380" xr2:uid="{502A55A8-F2D6-6745-ABA7-78602E154DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="full_list" sheetId="15" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5222" uniqueCount="788">
   <si>
     <t>Target</t>
   </si>
@@ -2498,16 +2498,19 @@
     <t>¿De quién es la bolsa?</t>
   </si>
   <si>
-    <t>¿Qué libro es tuyo?</t>
-  </si>
-  <si>
-    <t>¿Dónde compraste las copas?</t>
-  </si>
-  <si>
     <t>Why do you have my camisa?</t>
   </si>
   <si>
     <t>Where did you find his chanclas?</t>
+  </si>
+  <si>
+    <t>¿Cuándo compraste tu sweater?</t>
+  </si>
+  <si>
+    <t>donuts</t>
+  </si>
+  <si>
+    <t>¿Dónde encontraste sus donuts?</t>
   </si>
 </sst>
 </file>
@@ -2738,7 +2741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2834,13 +2837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7506,11 +7503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E2464C-A03A-1F45-9272-20D7FDC69068}">
-  <dimension ref="A1:P186"/>
+  <dimension ref="A1:P182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G193" sqref="G193"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="134" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="A172:XFD179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14569,409 +14566,405 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="55" t="s">
+    <row r="172" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A172" s="51" t="s">
         <v>778</v>
       </c>
-      <c r="B172" s="51" t="s">
+      <c r="B172" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D172" s="51" t="s">
+      <c r="D172" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E172" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F172" s="51" t="s">
+      <c r="E172" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F172" s="13" t="s">
         <v>770</v>
       </c>
-      <c r="G172" s="53" t="s">
+      <c r="G172" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="H172" s="53" t="str">
+      <c r="H172" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_en_na_tr1</v>
       </c>
-      <c r="I172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N172" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O172" s="53" t="s">
+      <c r="I172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N172" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O172" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="P172" s="53" t="s">
+      <c r="P172" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A173" s="55"/>
-      <c r="B173" s="51" t="s">
+    <row r="173" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A173" s="51"/>
+      <c r="B173" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D173" s="51" t="s">
+      <c r="D173" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E173" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F173" s="51" t="s">
+      <c r="E173" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="G173" s="53" t="s">
+      <c r="G173" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="H173" s="53" t="str">
+      <c r="H173" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_en_na_tr2</v>
       </c>
-      <c r="I173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N173" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O173" s="53" t="s">
+      <c r="I173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N173" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O173" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P173" s="53" t="s">
+      <c r="P173" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="174" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A174" s="55"/>
-      <c r="B174" s="51" t="s">
+    <row r="174" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A174" s="51"/>
+      <c r="B174" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D174" s="51" t="s">
+      <c r="D174" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E174" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F174" s="51" t="s">
+      <c r="E174" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>772</v>
       </c>
-      <c r="G174" s="53" t="s">
+      <c r="G174" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="H174" s="53" t="str">
+      <c r="H174" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_sp_na_tr3</v>
       </c>
-      <c r="I174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N174" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O174" s="53" t="s">
+      <c r="I174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N174" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O174" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="P174" s="53" t="s">
+      <c r="P174" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="175" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A175" s="55"/>
-      <c r="B175" s="51" t="s">
+    <row r="175" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="51"/>
+      <c r="B175" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D175" s="51" t="s">
+      <c r="D175" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E175" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F175" s="51" t="s">
+      <c r="E175" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>773</v>
       </c>
-      <c r="G175" s="53" t="s">
+      <c r="G175" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="H175" s="53" t="str">
+      <c r="H175" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_sp_na_tr4</v>
       </c>
-      <c r="I175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N175" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O175" s="53" t="s">
+      <c r="I175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N175" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O175" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="P175" s="53" t="s">
+      <c r="P175" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="55"/>
-      <c r="B176" s="51" t="s">
+    <row r="176" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A176" s="51"/>
+      <c r="B176" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D176" s="51" t="s">
+      <c r="D176" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E176" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F176" s="51" t="s">
+      <c r="E176" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F176" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="G176" s="53" t="s">
-        <v>783</v>
-      </c>
-      <c r="H176" s="53" t="str">
+      <c r="G176" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H176" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_se_na_tr5</v>
       </c>
-      <c r="I176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N176" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O176" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="P176" s="53" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A177" s="55"/>
-      <c r="B177" s="51" t="s">
+      <c r="I176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N176" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O176" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="P176" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="51"/>
+      <c r="B177" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C177" s="51" t="s">
+      <c r="C177" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D177" s="51" t="s">
+      <c r="D177" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="E177" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F177" s="51" t="s">
+      <c r="E177" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F177" s="13" t="s">
         <v>775</v>
       </c>
-      <c r="G177" s="53" t="s">
-        <v>784</v>
-      </c>
-      <c r="H177" s="53" t="str">
+      <c r="G177" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="H177" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_se_na_tr6</v>
       </c>
-      <c r="I177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N177" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O177" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="P177" s="53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A178" s="55"/>
-      <c r="B178" s="51" t="s">
+      <c r="I177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O177" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="P177" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A178" s="51"/>
+      <c r="B178" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C178" s="51" t="s">
+      <c r="C178" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D178" s="51" t="s">
+      <c r="D178" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E178" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F178" s="51" t="s">
+      <c r="E178" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F178" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="G178" s="53" t="s">
-        <v>785</v>
-      </c>
-      <c r="H178" s="53" t="str">
+      <c r="G178" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="H178" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_es_na_tr7</v>
       </c>
-      <c r="I178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N178" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O178" s="53" t="s">
+      <c r="I178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N178" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O178" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="P178" s="53" t="s">
+      <c r="P178" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="53" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A179" s="55"/>
-      <c r="B179" s="51" t="s">
+    <row r="179" spans="1:16" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A179" s="51"/>
+      <c r="B179" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C179" s="51" t="s">
+      <c r="C179" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E179" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F179" s="51" t="s">
+      <c r="E179" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F179" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="G179" s="53" t="s">
-        <v>786</v>
-      </c>
-      <c r="H179" s="53" t="str">
+      <c r="G179" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="H179" s="5" t="str">
         <f t="shared" si="3"/>
         <v>lt_tr_es_na_tr8</v>
       </c>
-      <c r="I179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="K179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="L179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="M179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="N179" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="O179" s="53" t="s">
+      <c r="I179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="J179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="K179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="L179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="M179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="N179" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="O179" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="P179" s="53" t="s">
+      <c r="P179" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="180" spans="1:16" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B180" s="51"/>
-    </row>
-    <row r="181" spans="1:16" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="182" spans="1:16" s="54" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
-    <row r="183" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" spans="1:16" s="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B180" s="13"/>
+    </row>
+    <row r="181" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
+    <row r="182" spans="1:16" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{C3E2464C-A03A-1F45-9272-20D7FDC69068}"/>
   <mergeCells count="5">
